--- a/scraping/Full_reviews.xlsx
+++ b/scraping/Full_reviews.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7530"/>
+    <workbookView windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>Customer</t>
   </si>
@@ -28,178 +28,169 @@
     <t>Posted_in</t>
   </si>
   <si>
+    <t>Flipkart Customer</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>8 months ago</t>
+  </si>
+  <si>
+    <t>Harikesh  Kumar</t>
+  </si>
+  <si>
+    <t>Nice product 😊😊😊</t>
+  </si>
+  <si>
+    <t>5 months ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md bin naser </t>
+  </si>
+  <si>
+    <t>Nice wonderful 😊👍</t>
+  </si>
+  <si>
+    <t>1 month ago</t>
+  </si>
+  <si>
+    <t>MEHEDI  HASSAN</t>
+  </si>
+  <si>
+    <t>All good but battery was die.....  Perfect combination👍👍👍👍👍👍👍👍👍👍👍👍👍👍</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>Surendra Singh</t>
+  </si>
+  <si>
+    <t>At a lower price this product is nice 👏</t>
+  </si>
+  <si>
+    <t>9 months ago</t>
+  </si>
+  <si>
+    <t>Very bad dont buy any one</t>
+  </si>
+  <si>
+    <t>S.Naresh</t>
+  </si>
+  <si>
+    <t>Watch is amazing but bracelet broke in 1 sec</t>
+  </si>
+  <si>
+    <t>7 months ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muddasani Krishna </t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Bhagavan  Rathode</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>6 months ago</t>
+  </si>
+  <si>
     <t>Sitara Shahnaaz</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Very nice products</t>
   </si>
   <si>
     <t>11 months ago</t>
   </si>
   <si>
-    <t>Flipkart Customer</t>
+    <t>Rinku Choudhary</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Karthik.R R</t>
+  </si>
+  <si>
+    <t>I am very happyVery good product🥰I like this product❤️</t>
+  </si>
+  <si>
+    <t>Sk Asfak  Ulla</t>
+  </si>
+  <si>
+    <t>Superb product</t>
+  </si>
+  <si>
+    <t>4 months ago</t>
+  </si>
+  <si>
+    <t>Pragya Verma</t>
+  </si>
+  <si>
+    <t>So good</t>
+  </si>
+  <si>
+    <t>Kesavan S</t>
+  </si>
+  <si>
+    <t>Worth for money spent!</t>
+  </si>
+  <si>
+    <t>3 months ago</t>
+  </si>
+  <si>
+    <t>Vasudev Fatnaik</t>
+  </si>
+  <si>
+    <t>Good product worth of money 😊</t>
+  </si>
+  <si>
+    <t>Juber Khan</t>
+  </si>
+  <si>
+    <t>Very nice👏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pkg PRATEEK singh </t>
+  </si>
+  <si>
+    <t>Very good product 👍</t>
+  </si>
+  <si>
+    <t>Tihs product I will bought, This is a good product</t>
+  </si>
+  <si>
+    <t>Bachchan Yadav</t>
+  </si>
+  <si>
+    <t>Good 👍👍👍👍👍👍</t>
+  </si>
+  <si>
+    <t>super 👌 👍 😍 🥰</t>
+  </si>
+  <si>
+    <t>Ruman Khan</t>
   </si>
   <si>
     <t>It is very good</t>
   </si>
   <si>
-    <t>7 months ago</t>
-  </si>
-  <si>
-    <t>Ruman Khan</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>9 months ago</t>
-  </si>
-  <si>
-    <t>super 👌 👍 😍 🥰</t>
-  </si>
-  <si>
-    <t>Bachchan Yadav</t>
-  </si>
-  <si>
-    <t>Good 👍👍👍👍👍👍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pkg PRATEEK singh </t>
-  </si>
-  <si>
-    <t>Very good product 👍</t>
-  </si>
-  <si>
-    <t>2 months ago</t>
-  </si>
-  <si>
-    <t>Tihs product I will bought, This is a good product</t>
-  </si>
-  <si>
-    <t>1 month ago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md bin naser </t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Nice wonderful 😊👍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muddasani Krishna </t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Very bad dont buy any one</t>
-  </si>
-  <si>
-    <t>MEHEDI  HASSAN</t>
-  </si>
-  <si>
-    <t>All good but battery was die.....  Perfect combination👍👍👍👍👍👍👍👍👍👍👍👍👍👍</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mohammad Ilyas  Shaikh Kasam </t>
   </si>
   <si>
     <t>Nice product 😊👍 I am happy</t>
   </si>
   <si>
-    <t>3 months ago</t>
-  </si>
-  <si>
     <t>Best product I have ever purchased from Flipkart.....Loved it</t>
   </si>
   <si>
     <t>GOOD QUALITY\ OKEY!!!!!!!</t>
-  </si>
-  <si>
-    <t>Kesavan S</t>
-  </si>
-  <si>
-    <t>Worth for money spent!</t>
-  </si>
-  <si>
-    <t>Vasudev Fatnaik</t>
-  </si>
-  <si>
-    <t>Good product worth of money 😊</t>
-  </si>
-  <si>
-    <t>Juber Khan</t>
-  </si>
-  <si>
-    <t>Very nice👏</t>
-  </si>
-  <si>
-    <t>Pragya Verma</t>
-  </si>
-  <si>
-    <t>So good</t>
-  </si>
-  <si>
-    <t>4 months ago</t>
-  </si>
-  <si>
-    <t>Sk Asfak  Ulla</t>
-  </si>
-  <si>
-    <t>Superb product</t>
-  </si>
-  <si>
-    <t>I am very happyVery good product🥰I like this product❤️</t>
-  </si>
-  <si>
-    <t>5 months ago</t>
-  </si>
-  <si>
-    <t>Harikesh  Kumar</t>
-  </si>
-  <si>
-    <t>Nice product 😊😊😊</t>
-  </si>
-  <si>
-    <t>Bhagavan  Rathode</t>
-  </si>
-  <si>
-    <t>6 months ago</t>
-  </si>
-  <si>
-    <t>Karthik.R R</t>
-  </si>
-  <si>
-    <t>Rinku Choudhary</t>
-  </si>
-  <si>
-    <t>Very good</t>
-  </si>
-  <si>
-    <t>S.Naresh</t>
-  </si>
-  <si>
-    <t>Watch is amazing but bracelet broke in 1 sec</t>
-  </si>
-  <si>
-    <t>Not good</t>
-  </si>
-  <si>
-    <t>8 months ago</t>
-  </si>
-  <si>
-    <t>Surendra Singh</t>
-  </si>
-  <si>
-    <t>At a lower price this product is nice 👏</t>
   </si>
 </sst>
 </file>
@@ -1195,16 +1186,15 @@
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="29.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="31.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="4" max="4" width="49.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="67.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -1228,14 +1218,14 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1243,16 +1233,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1260,16 +1250,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1277,16 +1267,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1294,16 +1284,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1311,16 +1301,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1328,16 +1318,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1345,16 +1335,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
         <v>23</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1364,14 +1354,14 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1379,16 +1369,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1396,16 +1386,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1413,16 +1403,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1430,16 +1420,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1447,16 +1437,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1464,16 +1454,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1481,16 +1471,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1498,16 +1488,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1515,16 +1505,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1532,16 +1522,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1549,16 +1539,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1566,16 +1556,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1583,16 +1573,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1600,16 +1590,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1617,16 +1607,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1634,16 +1624,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1651,16 +1641,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1668,16 +1658,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1685,16 +1675,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1702,16 +1692,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
